--- a/dist/result.xlsx
+++ b/dist/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powereng0-my.sharepoint.com/personal/ashim_dhakal_powereng_com/Documents/Desktop/pythonDB/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B00C2D506B97C1F45093AA782CD8C01686C026BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC11CF4C-1898-445A-BC30-4599E723FAC4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B00C2D506BB74EF824D2B8782CD8C01686C026BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ABFB813-3EC0-40CF-9A4B-861E96F9571A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17280" yWindow="1365" windowWidth="17280" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Report" sheetId="1" r:id="rId1"/>
@@ -3851,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dist/result.xlsx
+++ b/dist/result.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powereng0-my.sharepoint.com/personal/ashim_dhakal_powereng_com/Documents/Desktop/pythonDB/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B00C2D506BB74EF824D2B8782CD8C01686C026BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ABFB813-3EC0-40CF-9A4B-861E96F9571A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_B00C2D506BB74EF824D2B8782CD8C01686C026BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B7F1EE-CE77-4B41-A492-5B9C8388D298}"/>
   <bookViews>
-    <workbookView xWindow="-17280" yWindow="1365" windowWidth="17280" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Primary Stringing Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Neutral Span Stringing Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Primary Stringing Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Neutral Span Stringing Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1157">
   <si>
     <t>sequence</t>
   </si>
@@ -3484,6 +3485,15 @@
   </si>
   <si>
     <t>4200.70</t>
+  </si>
+  <si>
+    <t>p1 lat</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p1 long</t>
   </si>
 </sst>
 </file>
@@ -3851,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12982,6 +12992,748 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7353EA6-ED35-4EB9-9D46-1CE956C9A6AB}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -14153,7 +14905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>

--- a/dist/result.xlsx
+++ b/dist/result.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powereng0-my.sharepoint.com/personal/ashim_dhakal_powereng_com/Documents/Desktop/pythonDB/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_B00C2D506BB74EF824D2B8782CD8C01686C026BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B7F1EE-CE77-4B41-A492-5B9C8388D298}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B00C2D506B87C1C784E0A869F05BDA1686C02661" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9653B3D5-30B0-4449-A2DA-FD1179645386}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Primary Stringing Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Neutral Span Stringing Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Primary Stringing Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Neutral Span Stringing Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1154">
   <si>
     <t>sequence</t>
   </si>
@@ -136,408 +135,414 @@
     <t>EH121</t>
   </si>
   <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>PG11</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>63.65</t>
+  </si>
+  <si>
+    <t>72.65</t>
+  </si>
+  <si>
+    <t>P1 to NG12</t>
+  </si>
+  <si>
+    <t>NG12</t>
+  </si>
+  <si>
+    <t>70.41</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>01335006.0265102</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>42.49382668</t>
+  </si>
+  <si>
+    <t>-123.37553222</t>
+  </si>
+  <si>
+    <t>EH131</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>20.69</t>
+  </si>
+  <si>
+    <t>42.05</t>
+  </si>
+  <si>
+    <t>27.84</t>
+  </si>
+  <si>
+    <t>CM21</t>
+  </si>
+  <si>
+    <t>30.14</t>
+  </si>
+  <si>
+    <t>P1 to CM21</t>
+  </si>
+  <si>
+    <t>42.49382116</t>
+  </si>
+  <si>
+    <t>-123.37556088</t>
+  </si>
+  <si>
+    <t>12.70</t>
+  </si>
+  <si>
+    <t>38.86</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>01335006.0265160</t>
+  </si>
+  <si>
+    <t>S-03.5-H1-85</t>
+  </si>
+  <si>
+    <t>158.44</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>01335006.0265001</t>
+  </si>
+  <si>
+    <t>40T</t>
+  </si>
+  <si>
+    <t>DIST-S-02.9-C1-55-0</t>
+  </si>
+  <si>
+    <t>128.74</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>01335006.0265000</t>
+  </si>
+  <si>
+    <t>99.37</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>01335006.0355901</t>
+  </si>
+  <si>
+    <t>UNFUSED TAP EAST</t>
+  </si>
+  <si>
+    <t>P1 to P2</t>
+  </si>
+  <si>
+    <t>42.49050946</t>
+  </si>
+  <si>
+    <t>-123.37691739</t>
+  </si>
+  <si>
+    <t>EJ300 TAN + (2) EH226</t>
+  </si>
+  <si>
+    <t>40.85</t>
+  </si>
+  <si>
+    <t>PG21</t>
+  </si>
+  <si>
+    <t>82.20</t>
+  </si>
+  <si>
+    <t>91.16</t>
+  </si>
+  <si>
+    <t>UNFUSED TAP WEST</t>
+  </si>
+  <si>
+    <t>P1 to PG21</t>
+  </si>
+  <si>
+    <t>42.49050902</t>
+  </si>
+  <si>
+    <t>-123.37694458</t>
+  </si>
+  <si>
+    <t>48.18</t>
+  </si>
+  <si>
+    <t>CM22</t>
+  </si>
+  <si>
+    <t>82.68</t>
+  </si>
+  <si>
+    <t>P1 to CM22</t>
+  </si>
+  <si>
+    <t>64.68</t>
+  </si>
+  <si>
+    <t>42.49050607</t>
+  </si>
+  <si>
+    <t>-123.37674220</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>7.58</t>
+  </si>
+  <si>
+    <t>CM12</t>
+  </si>
+  <si>
+    <t>66.63</t>
+  </si>
+  <si>
+    <t>P1 to CM12</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>26.65</t>
+  </si>
+  <si>
+    <t>CMSP2</t>
+  </si>
+  <si>
+    <t>15.70</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>01335006.0354901</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>01335006.0354900</t>
+  </si>
+  <si>
+    <t>42.49095341</t>
+  </si>
+  <si>
+    <t>-123.37772589</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>49.85</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>42.49094526</t>
+  </si>
+  <si>
+    <t>-123.37770798</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>01335006.0355900</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>53.77</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>01335006.0356900</t>
+  </si>
+  <si>
+    <t>42.49056845</t>
+  </si>
+  <si>
+    <t>-123.37388568</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>19.42</t>
+  </si>
+  <si>
+    <t>51.33</t>
+  </si>
+  <si>
+    <t>31.84</t>
+  </si>
+  <si>
+    <t>42.79</t>
+  </si>
+  <si>
+    <t>42.49056808</t>
+  </si>
+  <si>
+    <t>-123.37390436</t>
+  </si>
+  <si>
+    <t>14.38</t>
+  </si>
+  <si>
+    <t>49.54</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>01335006.0355902</t>
+  </si>
+  <si>
+    <t>50.54</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>01335006.0355801</t>
+  </si>
+  <si>
+    <t>94.14</t>
+  </si>
+  <si>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>01335006.0354801</t>
+  </si>
+  <si>
+    <t>42.48953345</t>
+  </si>
+  <si>
+    <t>-123.37699968</t>
+  </si>
+  <si>
+    <t>EH201</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>38.91</t>
+  </si>
+  <si>
+    <t>88.57</t>
+  </si>
+  <si>
+    <t>P1 to PG12</t>
+  </si>
+  <si>
+    <t>PG12</t>
+  </si>
+  <si>
+    <t>37.04</t>
+  </si>
+  <si>
+    <t>42.48953337</t>
+  </si>
+  <si>
+    <t>-123.37701801</t>
+  </si>
+  <si>
+    <t>22.55</t>
+  </si>
+  <si>
+    <t>34.75</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>01335006.0354800</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25T</t>
+  </si>
+  <si>
+    <t>83.69</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>01335006.0353803</t>
+  </si>
+  <si>
+    <t>47.76</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>42.48953927</t>
+  </si>
+  <si>
+    <t>-123.38060956</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
-    <t>14.75</t>
-  </si>
-  <si>
-    <t>PG11</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>63.65</t>
-  </si>
-  <si>
-    <t>72.65</t>
-  </si>
-  <si>
-    <t>P1 to NG12</t>
-  </si>
-  <si>
-    <t>NG12</t>
-  </si>
-  <si>
-    <t>70.41</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>01335006.0265102</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>42.49382668</t>
-  </si>
-  <si>
-    <t>-123.37553222</t>
-  </si>
-  <si>
-    <t>EH131</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>20.69</t>
-  </si>
-  <si>
-    <t>42.05</t>
-  </si>
-  <si>
-    <t>27.84</t>
-  </si>
-  <si>
-    <t>CM21</t>
-  </si>
-  <si>
-    <t>30.14</t>
-  </si>
-  <si>
-    <t>P1 to CM21</t>
-  </si>
-  <si>
-    <t>42.49382116</t>
-  </si>
-  <si>
-    <t>-123.37556088</t>
-  </si>
-  <si>
-    <t>12.70</t>
-  </si>
-  <si>
-    <t>38.86</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>01335006.0265160</t>
-  </si>
-  <si>
-    <t>S-03.5-H1-85</t>
-  </si>
-  <si>
-    <t>158.44</t>
-  </si>
-  <si>
-    <t>2060</t>
-  </si>
-  <si>
-    <t>01335006.0265001</t>
-  </si>
-  <si>
-    <t>40T</t>
-  </si>
-  <si>
-    <t>DIST-S-02.9-C1-55-0</t>
-  </si>
-  <si>
-    <t>128.74</t>
-  </si>
-  <si>
-    <t>2070</t>
-  </si>
-  <si>
-    <t>01335006.0265000</t>
-  </si>
-  <si>
-    <t>99.37</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>01335006.0355901</t>
-  </si>
-  <si>
-    <t>UNFUSED TAP EAST</t>
-  </si>
-  <si>
-    <t>P1 to P2</t>
-  </si>
-  <si>
-    <t>42.49050946</t>
-  </si>
-  <si>
-    <t>-123.37691739</t>
-  </si>
-  <si>
-    <t>EJ300 TAN + (2) EH226</t>
-  </si>
-  <si>
-    <t>40.85</t>
-  </si>
-  <si>
-    <t>PG21</t>
-  </si>
-  <si>
-    <t>82.20</t>
-  </si>
-  <si>
-    <t>91.16</t>
-  </si>
-  <si>
-    <t>UNFUSED TAP WEST</t>
-  </si>
-  <si>
-    <t>P1 to PG21</t>
-  </si>
-  <si>
-    <t>42.49050902</t>
-  </si>
-  <si>
-    <t>-123.37694458</t>
-  </si>
-  <si>
-    <t>48.18</t>
-  </si>
-  <si>
-    <t>CM22</t>
-  </si>
-  <si>
-    <t>82.68</t>
-  </si>
-  <si>
-    <t>P1 to CM22</t>
-  </si>
-  <si>
-    <t>64.68</t>
-  </si>
-  <si>
-    <t>42.49050607</t>
-  </si>
-  <si>
-    <t>-123.37674220</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>7.58</t>
-  </si>
-  <si>
-    <t>CM12</t>
-  </si>
-  <si>
-    <t>66.63</t>
-  </si>
-  <si>
-    <t>P1 to CM12</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>26.65</t>
-  </si>
-  <si>
-    <t>CMSP2</t>
-  </si>
-  <si>
-    <t>15.70</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>01335006.0354901</t>
-  </si>
-  <si>
-    <t>2090</t>
-  </si>
-  <si>
-    <t>01335006.0354900</t>
-  </si>
-  <si>
-    <t>42.49095341</t>
-  </si>
-  <si>
-    <t>-123.37772589</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>16.14</t>
-  </si>
-  <si>
-    <t>49.85</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>39.01</t>
-  </si>
-  <si>
-    <t>42.49094526</t>
-  </si>
-  <si>
-    <t>-123.37770798</t>
-  </si>
-  <si>
-    <t>10.47</t>
-  </si>
-  <si>
-    <t>49.99</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>01335006.0355900</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>53.77</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>01335006.0356900</t>
-  </si>
-  <si>
-    <t>42.49056845</t>
-  </si>
-  <si>
-    <t>-123.37388568</t>
-  </si>
-  <si>
-    <t>19.42</t>
-  </si>
-  <si>
-    <t>51.33</t>
-  </si>
-  <si>
-    <t>31.84</t>
-  </si>
-  <si>
-    <t>42.79</t>
-  </si>
-  <si>
-    <t>42.49056808</t>
-  </si>
-  <si>
-    <t>-123.37390436</t>
-  </si>
-  <si>
-    <t>14.38</t>
-  </si>
-  <si>
-    <t>49.54</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>01335006.0355902</t>
-  </si>
-  <si>
-    <t>50.54</t>
-  </si>
-  <si>
-    <t>2130</t>
-  </si>
-  <si>
-    <t>01335006.0355801</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>01335006.0354801</t>
-  </si>
-  <si>
-    <t>42.48953345</t>
-  </si>
-  <si>
-    <t>-123.37699968</t>
-  </si>
-  <si>
-    <t>EH201</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>38.91</t>
-  </si>
-  <si>
-    <t>88.57</t>
-  </si>
-  <si>
-    <t>P1 to PG12</t>
-  </si>
-  <si>
-    <t>PG12</t>
-  </si>
-  <si>
-    <t>37.04</t>
-  </si>
-  <si>
-    <t>42.48953337</t>
-  </si>
-  <si>
-    <t>-123.37701801</t>
-  </si>
-  <si>
-    <t>22.55</t>
-  </si>
-  <si>
-    <t>34.75</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>01335006.0354800</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25T</t>
-  </si>
-  <si>
-    <t>83.69</t>
-  </si>
-  <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>01335006.0353803</t>
-  </si>
-  <si>
-    <t>47.76</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>42.48953927</t>
-  </si>
-  <si>
-    <t>-123.38060956</t>
-  </si>
-  <si>
     <t>31.35</t>
   </si>
   <si>
@@ -580,9 +585,6 @@
     <t>EH111</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>27.68</t>
   </si>
   <si>
@@ -619,9 +621,6 @@
     <t>-123.38128778</t>
   </si>
   <si>
-    <t>SW</t>
-  </si>
-  <si>
     <t>29.85</t>
   </si>
   <si>
@@ -3485,15 +3484,6 @@
   </si>
   <si>
     <t>4200.70</t>
-  </si>
-  <si>
-    <t>p1 lat</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>p1 long</t>
   </si>
 </sst>
 </file>
@@ -3861,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:R17"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4861,10 +4851,10 @@
         <v>51</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>24</v>
@@ -4876,10 +4866,10 @@
         <v>40</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>75</v>
@@ -4906,10 +4896,10 @@
         <v>51</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
@@ -4919,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3" t="s">
@@ -4938,19 +4928,19 @@
         <v>58</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
@@ -4960,7 +4950,7 @@
         <v>40</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3" t="s">
@@ -4970,10 +4960,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -4998,7 +4988,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>75</v>
@@ -5007,10 +4997,10 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>125</v>
@@ -5035,7 +5025,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>75</v>
@@ -5044,10 +5034,10 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -5065,19 +5055,19 @@
         <v>33</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>24</v>
@@ -5089,10 +5079,10 @@
         <v>40</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>75</v>
@@ -5107,32 +5097,32 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
@@ -5151,19 +5141,19 @@
         <v>58</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
@@ -5173,7 +5163,7 @@
         <v>40</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
@@ -5183,13 +5173,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>21</v>
@@ -5198,7 +5188,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -5213,7 +5203,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>75</v>
@@ -5222,10 +5212,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
@@ -5250,7 +5240,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>75</v>
@@ -5259,7 +5249,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5270,19 +5260,19 @@
         <v>33</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>24</v>
@@ -5294,13 +5284,13 @@
         <v>40</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S33" s="3"/>
     </row>
@@ -5315,19 +5305,19 @@
         <v>43</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
@@ -5337,11 +5327,11 @@
         <v>40</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S34" s="3"/>
     </row>
@@ -5356,10 +5346,10 @@
         <v>58</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>36</v>
@@ -5368,7 +5358,7 @@
         <v>37</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
@@ -5378,20 +5368,20 @@
         <v>40</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -5409,19 +5399,19 @@
         <v>33</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>24</v>
@@ -5433,13 +5423,13 @@
         <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S36" s="2"/>
     </row>
@@ -5454,19 +5444,19 @@
         <v>43</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
@@ -5476,11 +5466,11 @@
         <v>40</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S37" s="2"/>
     </row>
@@ -5495,19 +5485,19 @@
         <v>58</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
@@ -5517,20 +5507,20 @@
         <v>40</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>48</v>
@@ -5546,16 +5536,16 @@
         <v>33</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>199</v>
@@ -5576,7 +5566,7 @@
         <v>201</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S39" s="3"/>
     </row>
@@ -5591,16 +5581,16 @@
         <v>43</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>199</v>
@@ -5617,7 +5607,7 @@
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S40" s="3"/>
     </row>
@@ -5641,7 +5631,7 @@
         <v>51</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>205</v>
@@ -5658,7 +5648,7 @@
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S41" s="3"/>
     </row>
@@ -5765,10 +5755,10 @@
         <v>217</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>218</v>
@@ -5810,10 +5800,10 @@
         <v>217</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>218</v>
@@ -5826,7 +5816,7 @@
         <v>40</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
@@ -5851,10 +5841,10 @@
         <v>222</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>223</v>
@@ -5905,7 +5895,7 @@
         <v>51</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>229</v>
@@ -5950,7 +5940,7 @@
         <v>51</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>229</v>
@@ -6040,7 +6030,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>240</v>
@@ -6085,7 +6075,7 @@
         <v>36</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>240</v>
@@ -6188,7 +6178,7 @@
         <v>251</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>21</v>
@@ -6210,7 +6200,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>254</v>
@@ -6255,7 +6245,7 @@
         <v>36</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>254</v>
@@ -6368,7 +6358,7 @@
         <v>274</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S57" s="3"/>
     </row>
@@ -6405,11 +6395,11 @@
         <v>40</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S58" s="3"/>
     </row>
@@ -6531,7 +6521,7 @@
         <v>281</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>289</v>
@@ -6572,7 +6562,7 @@
         <v>281</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>289</v>
@@ -6623,7 +6613,7 @@
         <v>51</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>298</v>
@@ -6668,7 +6658,7 @@
         <v>51</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>298</v>
@@ -6719,7 +6709,7 @@
         <v>36</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>306</v>
@@ -6764,7 +6754,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>306</v>
@@ -6817,7 +6807,7 @@
         <v>314</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>315</v>
@@ -6862,7 +6852,7 @@
         <v>314</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>315</v>
@@ -7094,7 +7084,7 @@
         <v>335</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S73" s="2"/>
     </row>
@@ -7125,7 +7115,7 @@
         <v>339</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>37</v>
@@ -7149,7 +7139,7 @@
         <v>342</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S74" s="3"/>
     </row>
@@ -7170,7 +7160,7 @@
         <v>339</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>37</v>
@@ -7190,7 +7180,7 @@
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S75" s="3"/>
     </row>
@@ -7211,7 +7201,7 @@
         <v>345</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>37</v>
@@ -7231,7 +7221,7 @@
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S76" s="3"/>
     </row>
@@ -7286,7 +7276,7 @@
         <v>357</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S77" s="2"/>
     </row>
@@ -7394,7 +7384,7 @@
         <v>367</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>21</v>
@@ -7416,7 +7406,7 @@
         <v>370</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>371</v>
@@ -7437,7 +7427,7 @@
         <v>373</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S80" s="2"/>
     </row>
@@ -7461,7 +7451,7 @@
         <v>370</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>371</v>
@@ -7478,7 +7468,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S81" s="2"/>
     </row>
@@ -7502,7 +7492,7 @@
         <v>370</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>377</v>
@@ -7519,7 +7509,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S82" s="2"/>
     </row>
@@ -7556,7 +7546,7 @@
         <v>381</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S83" s="3"/>
     </row>
@@ -7592,7 +7582,7 @@
         <v>51</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>386</v>
@@ -7613,7 +7603,7 @@
         <v>388</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S84" s="2"/>
     </row>
@@ -7637,7 +7627,7 @@
         <v>51</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>386</v>
@@ -7654,7 +7644,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S85" s="2"/>
     </row>
@@ -7678,7 +7668,7 @@
         <v>51</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>392</v>
@@ -7695,7 +7685,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S86" s="2"/>
     </row>
@@ -7726,7 +7716,7 @@
         <v>395</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S87" s="3"/>
     </row>
@@ -7757,7 +7747,7 @@
         <v>399</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>37</v>
@@ -7781,7 +7771,7 @@
         <v>402</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S88" s="2"/>
     </row>
@@ -7802,7 +7792,7 @@
         <v>399</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>37</v>
@@ -7822,7 +7812,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S89" s="2"/>
     </row>
@@ -7843,7 +7833,7 @@
         <v>405</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>37</v>
@@ -7863,7 +7853,7 @@
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S90" s="2"/>
     </row>
@@ -7894,7 +7884,7 @@
         <v>411</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>114</v>
@@ -7918,7 +7908,7 @@
         <v>414</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S91" s="3"/>
     </row>
@@ -7939,7 +7929,7 @@
         <v>411</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>114</v>
@@ -7959,7 +7949,7 @@
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S92" s="3"/>
     </row>
@@ -7980,7 +7970,7 @@
         <v>417</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>52</v>
@@ -8000,7 +7990,7 @@
       </c>
       <c r="Q93" s="3"/>
       <c r="R93" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S93" s="3"/>
     </row>
@@ -8021,7 +8011,7 @@
         <v>417</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>52</v>
@@ -8041,7 +8031,7 @@
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S94" s="3"/>
     </row>
@@ -8062,7 +8052,7 @@
         <v>423</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>52</v>
@@ -8082,7 +8072,7 @@
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S95" s="3"/>
     </row>
@@ -8094,7 +8084,7 @@
         <v>428</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>21</v>
@@ -8137,7 +8127,7 @@
         <v>433</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S96" s="2"/>
     </row>
@@ -8178,7 +8168,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S97" s="2"/>
     </row>
@@ -8215,7 +8205,7 @@
         <v>437</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S98" s="3"/>
     </row>
@@ -8251,7 +8241,7 @@
         <v>82</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>442</v>
@@ -8272,7 +8262,7 @@
         <v>444</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S99" s="2"/>
     </row>
@@ -8298,7 +8288,7 @@
         <v>82</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>442</v>
@@ -8315,7 +8305,7 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S100" s="2"/>
     </row>
@@ -8339,7 +8329,7 @@
         <v>82</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>448</v>
@@ -8356,7 +8346,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S101" s="2"/>
     </row>
@@ -8395,7 +8385,7 @@
         <v>452</v>
       </c>
       <c r="R102" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S102" s="3"/>
     </row>
@@ -8431,7 +8421,7 @@
         <v>314</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>457</v>
@@ -8452,7 +8442,7 @@
         <v>459</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S103" s="2"/>
     </row>
@@ -8489,7 +8479,7 @@
         <v>462</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S104" s="3"/>
     </row>
@@ -8526,7 +8516,7 @@
         <v>465</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S105" s="2"/>
     </row>
@@ -8538,7 +8528,7 @@
         <v>467</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>21</v>
@@ -8563,7 +8553,7 @@
         <v>469</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S106" s="3"/>
     </row>
@@ -8597,7 +8587,7 @@
         <v>51</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>317</v>
@@ -8618,7 +8608,7 @@
         <v>475</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S107" s="2"/>
     </row>
@@ -8642,7 +8632,7 @@
         <v>51</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>317</v>
@@ -8659,7 +8649,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S108" s="2"/>
     </row>
@@ -8683,7 +8673,7 @@
         <v>51</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>479</v>
@@ -8700,7 +8690,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S109" s="2"/>
     </row>
@@ -8731,10 +8721,10 @@
         <v>484</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>289</v>
@@ -8755,7 +8745,7 @@
         <v>486</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S110" s="3"/>
     </row>
@@ -8767,7 +8757,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>483</v>
@@ -8776,17 +8766,17 @@
         <v>484</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>289</v>
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>40</v>
@@ -8796,7 +8786,7 @@
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S111" s="3"/>
     </row>
@@ -8833,7 +8823,7 @@
         <v>490</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S112" s="2"/>
     </row>
@@ -8870,7 +8860,7 @@
         <v>493</v>
       </c>
       <c r="R113" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S113" s="3"/>
     </row>
@@ -8907,7 +8897,7 @@
         <v>496</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S114" s="2"/>
     </row>
@@ -8946,7 +8936,7 @@
         <v>500</v>
       </c>
       <c r="R115" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S115" s="3"/>
     </row>
@@ -8977,7 +8967,7 @@
         <v>504</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>262</v>
@@ -9001,7 +8991,7 @@
         <v>507</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S116" s="2"/>
     </row>
@@ -9022,7 +9012,7 @@
         <v>504</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>262</v>
@@ -9042,7 +9032,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S117" s="2"/>
     </row>
@@ -9063,7 +9053,7 @@
         <v>21</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>33</v>
@@ -9099,7 +9089,7 @@
         <v>515</v>
       </c>
       <c r="R118" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S118" s="3"/>
     </row>
@@ -9140,7 +9130,7 @@
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S119" s="3"/>
     </row>
@@ -9177,7 +9167,7 @@
         <v>519</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S120" s="2"/>
     </row>
@@ -9213,7 +9203,7 @@
         <v>36</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>524</v>
@@ -9234,7 +9224,7 @@
         <v>526</v>
       </c>
       <c r="R121" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S121" s="3"/>
     </row>
@@ -9258,7 +9248,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>524</v>
@@ -9275,7 +9265,7 @@
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S122" s="3"/>
     </row>
@@ -9299,7 +9289,7 @@
         <v>36</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>530</v>
@@ -9316,7 +9306,7 @@
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S123" s="3"/>
     </row>
@@ -9340,7 +9330,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>530</v>
@@ -9357,7 +9347,7 @@
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S124" s="3"/>
     </row>
@@ -9396,7 +9386,7 @@
         <v>535</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S125" s="2"/>
     </row>
@@ -9421,7 +9411,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S126" s="2"/>
     </row>
@@ -9455,7 +9445,7 @@
         <v>269</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>540</v>
@@ -9476,7 +9466,7 @@
         <v>542</v>
       </c>
       <c r="R127" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S127" s="3"/>
     </row>
@@ -9500,7 +9490,7 @@
         <v>269</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>540</v>
@@ -9517,7 +9507,7 @@
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S128" s="3"/>
     </row>
@@ -9551,7 +9541,7 @@
         <v>51</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>548</v>
@@ -9572,7 +9562,7 @@
         <v>550</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S129" s="2"/>
     </row>
@@ -9596,7 +9586,7 @@
         <v>51</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>548</v>
@@ -9613,7 +9603,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S130" s="2"/>
     </row>
@@ -9670,7 +9660,7 @@
         <v>386</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S131" s="3"/>
     </row>
@@ -9711,7 +9701,7 @@
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S132" s="3"/>
     </row>
@@ -9747,7 +9737,7 @@
         <v>563</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>564</v>
@@ -9768,7 +9758,7 @@
         <v>566</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S133" s="2"/>
     </row>
@@ -9792,7 +9782,7 @@
         <v>563</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>564</v>
@@ -9809,7 +9799,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S134" s="2"/>
     </row>
@@ -9850,7 +9840,7 @@
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S135" s="2"/>
     </row>
@@ -9891,7 +9881,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S136" s="2"/>
     </row>
@@ -9932,7 +9922,7 @@
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S137" s="2"/>
     </row>
@@ -9973,7 +9963,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S138" s="2"/>
     </row>
@@ -9985,7 +9975,7 @@
         <v>585</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>21</v>
@@ -10007,7 +9997,7 @@
         <v>51</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>588</v>
@@ -10028,7 +10018,7 @@
         <v>475</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S139" s="3"/>
     </row>
@@ -10052,7 +10042,7 @@
         <v>51</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>588</v>
@@ -10069,7 +10059,7 @@
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S140" s="3"/>
     </row>
@@ -10106,7 +10096,7 @@
         <v>593</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S141" s="2"/>
     </row>
@@ -10142,7 +10132,7 @@
         <v>353</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>599</v>
@@ -10163,7 +10153,7 @@
         <v>602</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S142" s="3"/>
     </row>
@@ -10202,7 +10192,7 @@
         <v>605</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S143" s="2"/>
     </row>
@@ -10214,7 +10204,7 @@
         <v>607</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>21</v>
@@ -10239,7 +10229,7 @@
         <v>608</v>
       </c>
       <c r="R144" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S144" s="3"/>
     </row>
@@ -10275,7 +10265,7 @@
         <v>314</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>614</v>
@@ -10296,7 +10286,7 @@
         <v>616</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S145" s="2"/>
     </row>
@@ -10320,14 +10310,14 @@
         <v>314</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>619</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>40</v>
@@ -10337,7 +10327,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S146" s="2"/>
     </row>
@@ -10349,7 +10339,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>617</v>
@@ -10361,7 +10351,7 @@
         <v>314</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>619</v>
@@ -10378,7 +10368,7 @@
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S147" s="2"/>
     </row>
@@ -10402,7 +10392,7 @@
         <v>314</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>619</v>
@@ -10419,7 +10409,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S148" s="2"/>
     </row>
@@ -10448,7 +10438,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S149" s="2"/>
     </row>
@@ -10477,7 +10467,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S150" s="2"/>
     </row>
@@ -10545,7 +10535,7 @@
         <v>633</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S152" s="2"/>
     </row>
@@ -10579,7 +10569,7 @@
         <v>51</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>638</v>
@@ -10600,7 +10590,7 @@
         <v>640</v>
       </c>
       <c r="R153" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S153" s="3"/>
     </row>
@@ -10624,7 +10614,7 @@
         <v>51</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>638</v>
@@ -10641,7 +10631,7 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S154" s="3"/>
     </row>
@@ -10665,7 +10655,7 @@
         <v>51</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>644</v>
@@ -10682,7 +10672,7 @@
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S155" s="3"/>
     </row>
@@ -10721,7 +10711,7 @@
         <v>648</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S156" s="2"/>
     </row>
@@ -10776,7 +10766,7 @@
         <v>655</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S157" s="3"/>
     </row>
@@ -10817,7 +10807,7 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S158" s="3"/>
     </row>
@@ -10858,7 +10848,7 @@
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S159" s="3"/>
     </row>
@@ -10892,7 +10882,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>664</v>
@@ -10913,7 +10903,7 @@
         <v>666</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S160" s="2"/>
     </row>
@@ -10937,7 +10927,7 @@
         <v>36</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>664</v>
@@ -10954,7 +10944,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S161" s="2"/>
     </row>
@@ -10978,7 +10968,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>664</v>
@@ -10995,7 +10985,7 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S162" s="2"/>
     </row>
@@ -11007,7 +10997,7 @@
         <v>670</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>21</v>
@@ -11029,7 +11019,7 @@
         <v>51</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>673</v>
@@ -11050,7 +11040,7 @@
         <v>675</v>
       </c>
       <c r="R163" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S163" s="3"/>
     </row>
@@ -11074,7 +11064,7 @@
         <v>51</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>673</v>
@@ -11091,7 +11081,7 @@
       </c>
       <c r="Q164" s="3"/>
       <c r="R164" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S164" s="3"/>
     </row>
@@ -11115,7 +11105,7 @@
         <v>51</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>679</v>
@@ -11132,7 +11122,7 @@
       </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S165" s="3"/>
     </row>
@@ -11189,7 +11179,7 @@
         <v>688</v>
       </c>
       <c r="R166" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S166" s="2"/>
     </row>
@@ -11213,7 +11203,7 @@
         <v>685</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>691</v>
@@ -11226,11 +11216,11 @@
         <v>40</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S167" s="2"/>
     </row>
@@ -11254,7 +11244,7 @@
         <v>685</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>691</v>
@@ -11271,7 +11261,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S168" s="2"/>
     </row>
@@ -11295,7 +11285,7 @@
         <v>685</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>691</v>
@@ -11312,7 +11302,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S169" s="2"/>
     </row>
@@ -11353,7 +11343,7 @@
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S170" s="2"/>
     </row>
@@ -11394,7 +11384,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S171" s="2"/>
     </row>
@@ -11435,7 +11425,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S172" s="2"/>
     </row>
@@ -11464,7 +11454,7 @@
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S173" s="2"/>
     </row>
@@ -11493,7 +11483,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S174" s="2"/>
     </row>
@@ -11505,7 +11495,7 @@
         <v>704</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>21</v>
@@ -11530,7 +11520,7 @@
         <v>705</v>
       </c>
       <c r="R175" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S175" s="3"/>
     </row>
@@ -11564,7 +11554,7 @@
         <v>36</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>710</v>
@@ -11585,7 +11575,7 @@
         <v>712</v>
       </c>
       <c r="R176" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S176" s="2"/>
     </row>
@@ -11609,7 +11599,7 @@
         <v>36</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>710</v>
@@ -11626,7 +11616,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S177" s="2"/>
     </row>
@@ -11638,7 +11628,7 @@
         <v>715</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>21</v>
@@ -11681,7 +11671,7 @@
         <v>720</v>
       </c>
       <c r="R178" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S178" s="3"/>
     </row>
@@ -11722,7 +11712,7 @@
       </c>
       <c r="Q179" s="3"/>
       <c r="R179" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S179" s="3"/>
     </row>
@@ -11756,10 +11746,10 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S180" s="2"/>
     </row>
@@ -11816,7 +11806,7 @@
         <v>730</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S181" s="3"/>
     </row>
@@ -11859,7 +11849,7 @@
       </c>
       <c r="Q182" s="3"/>
       <c r="R182" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S182" s="3"/>
     </row>
@@ -11871,7 +11861,7 @@
         <v>733</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>21</v>
@@ -11914,7 +11904,7 @@
         <v>738</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S183" s="2"/>
     </row>
@@ -11955,7 +11945,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S184" s="2"/>
     </row>
@@ -11994,7 +11984,7 @@
         <v>742</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S185" s="3"/>
     </row>
@@ -12049,7 +12039,7 @@
         <v>679</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S186" s="2"/>
     </row>
@@ -12090,7 +12080,7 @@
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S187" s="2"/>
     </row>
@@ -12124,7 +12114,7 @@
         <v>36</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>755</v>
@@ -12145,7 +12135,7 @@
         <v>757</v>
       </c>
       <c r="R188" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S188" s="3"/>
     </row>
@@ -12169,14 +12159,14 @@
         <v>36</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>760</v>
       </c>
       <c r="M189" s="3"/>
       <c r="N189" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>40</v>
@@ -12186,7 +12176,7 @@
       </c>
       <c r="Q189" s="3"/>
       <c r="R189" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S189" s="3"/>
     </row>
@@ -12198,7 +12188,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>758</v>
@@ -12210,7 +12200,7 @@
         <v>36</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>760</v>
@@ -12227,7 +12217,7 @@
       </c>
       <c r="Q190" s="3"/>
       <c r="R190" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S190" s="3"/>
     </row>
@@ -12256,7 +12246,7 @@
       </c>
       <c r="Q191" s="3"/>
       <c r="R191" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S191" s="3"/>
     </row>
@@ -12308,7 +12298,7 @@
         <v>21</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>33</v>
@@ -12320,10 +12310,10 @@
         <v>769</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>770</v>
@@ -12344,7 +12334,7 @@
         <v>772</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S193" s="3"/>
     </row>
@@ -12365,10 +12355,10 @@
         <v>769</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>770</v>
@@ -12385,7 +12375,7 @@
       </c>
       <c r="Q194" s="3"/>
       <c r="R194" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S194" s="3"/>
     </row>
@@ -12406,10 +12396,10 @@
         <v>775</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>776</v>
@@ -12426,7 +12416,7 @@
       </c>
       <c r="Q195" s="3"/>
       <c r="R195" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S195" s="3"/>
     </row>
@@ -12481,7 +12471,7 @@
         <v>784</v>
       </c>
       <c r="R196" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S196" s="2"/>
     </row>
@@ -12520,7 +12510,7 @@
         <v>788</v>
       </c>
       <c r="R197" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S197" s="3"/>
     </row>
@@ -12557,7 +12547,7 @@
         <v>791</v>
       </c>
       <c r="R198" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S198" s="2"/>
     </row>
@@ -12591,7 +12581,7 @@
         <v>36</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>796</v>
@@ -12612,7 +12602,7 @@
         <v>798</v>
       </c>
       <c r="R199" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S199" s="3"/>
     </row>
@@ -12636,7 +12626,7 @@
         <v>36</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>796</v>
@@ -12653,7 +12643,7 @@
       </c>
       <c r="Q200" s="3"/>
       <c r="R200" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S200" s="3"/>
     </row>
@@ -12677,7 +12667,7 @@
         <v>36</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>626</v>
@@ -12694,7 +12684,7 @@
       </c>
       <c r="Q201" s="3"/>
       <c r="R201" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S201" s="3"/>
     </row>
@@ -12728,7 +12718,7 @@
         <v>36</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>807</v>
@@ -12749,7 +12739,7 @@
         <v>809</v>
       </c>
       <c r="R202" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S202" s="2"/>
     </row>
@@ -12773,7 +12763,7 @@
         <v>36</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>807</v>
@@ -12790,7 +12780,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S203" s="2"/>
     </row>
@@ -12814,7 +12804,7 @@
         <v>36</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>813</v>
@@ -12831,7 +12821,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S204" s="2"/>
     </row>
@@ -12865,7 +12855,7 @@
         <v>353</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>819</v>
@@ -12886,7 +12876,7 @@
         <v>821</v>
       </c>
       <c r="R205" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S205" s="3"/>
     </row>
@@ -12920,7 +12910,7 @@
         <v>51</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>826</v>
@@ -12941,7 +12931,7 @@
         <v>828</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S206" s="2"/>
     </row>
@@ -12965,7 +12955,7 @@
         <v>51</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>826</v>
@@ -12982,7 +12972,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S207" s="2"/>
     </row>
@@ -12992,748 +12982,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7353EA6-ED35-4EB9-9D46-1CE956C9A6AB}">
-  <dimension ref="A1:R17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:R8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -13775,7 +13023,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>837</v>
@@ -13784,7 +13032,7 @@
         <v>838</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>839</v>
@@ -13807,7 +13055,7 @@
         <v>838</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>842</v>
@@ -13816,7 +13064,7 @@
         <v>842</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -13830,7 +13078,7 @@
         <v>838</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>845</v>
@@ -13853,7 +13101,7 @@
         <v>838</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>848</v>
@@ -13876,7 +13124,7 @@
         <v>838</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
         <v>851</v>
@@ -13899,7 +13147,7 @@
         <v>838</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
         <v>854</v>
@@ -13922,7 +13170,7 @@
         <v>838</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>858</v>
@@ -13945,7 +13193,7 @@
         <v>838</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>861</v>
@@ -13968,7 +13216,7 @@
         <v>838</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>865</v>
@@ -13991,7 +13239,7 @@
         <v>838</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>868</v>
@@ -14014,7 +13262,7 @@
         <v>838</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
         <v>871</v>
@@ -14037,7 +13285,7 @@
         <v>838</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>875</v>
@@ -14060,7 +13308,7 @@
         <v>838</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
         <v>879</v>
@@ -14083,7 +13331,7 @@
         <v>838</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
         <v>881</v>
@@ -14106,7 +13354,7 @@
         <v>838</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
         <v>884</v>
@@ -14129,7 +13377,7 @@
         <v>838</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
         <v>887</v>
@@ -14152,7 +13400,7 @@
         <v>838</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
         <v>891</v>
@@ -14161,7 +13409,7 @@
         <v>891</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -14175,7 +13423,7 @@
         <v>838</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>894</v>
@@ -14198,7 +13446,7 @@
         <v>838</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>898</v>
@@ -14207,7 +13455,7 @@
         <v>898</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -14221,7 +13469,7 @@
         <v>838</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
         <v>901</v>
@@ -14230,7 +13478,7 @@
         <v>901</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -14244,7 +13492,7 @@
         <v>838</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
         <v>904</v>
@@ -14267,7 +13515,7 @@
         <v>838</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
         <v>906</v>
@@ -14290,7 +13538,7 @@
         <v>838</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
         <v>910</v>
@@ -14313,7 +13561,7 @@
         <v>838</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
         <v>913</v>
@@ -14336,7 +13584,7 @@
         <v>838</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
         <v>916</v>
@@ -14359,7 +13607,7 @@
         <v>838</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
         <v>919</v>
@@ -14382,7 +13630,7 @@
         <v>838</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>922</v>
@@ -14405,7 +13653,7 @@
         <v>838</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
         <v>925</v>
@@ -14428,7 +13676,7 @@
         <v>838</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
         <v>929</v>
@@ -14451,7 +13699,7 @@
         <v>838</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
         <v>932</v>
@@ -14474,7 +13722,7 @@
         <v>838</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
         <v>936</v>
@@ -14497,7 +13745,7 @@
         <v>838</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>939</v>
@@ -14520,7 +13768,7 @@
         <v>838</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>942</v>
@@ -14543,7 +13791,7 @@
         <v>838</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
         <v>946</v>
@@ -14566,7 +13814,7 @@
         <v>838</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
         <v>949</v>
@@ -14589,7 +13837,7 @@
         <v>838</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
         <v>953</v>
@@ -14612,7 +13860,7 @@
         <v>838</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
         <v>956</v>
@@ -14635,7 +13883,7 @@
         <v>838</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
         <v>959</v>
@@ -14658,7 +13906,7 @@
         <v>838</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
         <v>962</v>
@@ -14681,7 +13929,7 @@
         <v>838</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
         <v>965</v>
@@ -14704,7 +13952,7 @@
         <v>838</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
         <v>968</v>
@@ -14727,7 +13975,7 @@
         <v>838</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
         <v>971</v>
@@ -14750,7 +13998,7 @@
         <v>838</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
         <v>974</v>
@@ -14773,7 +14021,7 @@
         <v>838</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
         <v>977</v>
@@ -14796,7 +14044,7 @@
         <v>838</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
         <v>981</v>
@@ -14819,7 +14067,7 @@
         <v>838</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
         <v>984</v>
@@ -14842,7 +14090,7 @@
         <v>838</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
         <v>988</v>
@@ -14905,7 +14153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
@@ -14990,7 +14238,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>1017</v>
